--- a/medicine/Enfance/Christian_Grenier/Christian_Grenier.xlsx
+++ b/medicine/Enfance/Christian_Grenier/Christian_Grenier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Grenier, né le 26 juin 1945 à Paris, est un écrivain français de romans, de pièces de théâtre et de nouvelles pour la jeunesse. Ses domaines de prédilection sont la science-fiction et le policier.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 26 juin 1945 à Paris, de parents comédiens[1], Christian Grenier est plongé dès son enfance dans le théâtre et souhaitait devenir acteur. Ses parents s'y opposant, il choisit de suivre des études de lettres[1], qui l'amèneront finalement à la profession d'enseignant (professeur de français)[1],[2]. C'est dans un collège parisien qu'il animera des clubs d'astronomie, de science-fiction, et de théâtre[2], passions qu'il a découvertes très jeune — ce sont les progrès dans le domaine de la conquête de l'espace, depuis la fin des années 1950, qui le poussent à explorer ces univers qu'il transformera en science-fiction.
-Il obtient le prix O.R.T.F. (Prix de la radio et de la télévision) en 1972 grâce à son troisième ouvrage La Machination, ce qui marque le réel début de sa carrière d'écrivain[2].
-En 1975, Christian Grenier est cofondateur avec son ami écrivain Robert Bigot, de la Charte des auteurs et illustrateurs pour la jeunesse[3].
-Mis à contribution par les éditeurs, notamment dans les rôles de lecteur, correcteur et rewriter[1], il n'exerce finalement plus qu'en temps partiel, avant de quitter définitivement l'enseignement (et Paris par la même occasion), en 1990[2], pour se consacrer à l'écriture dans le Périgord[1] (Dordogne) ainsi qu'à sa femme et à ses deux enfants, nés en 1968 et 1970[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 26 juin 1945 à Paris, de parents comédiens, Christian Grenier est plongé dès son enfance dans le théâtre et souhaitait devenir acteur. Ses parents s'y opposant, il choisit de suivre des études de lettres, qui l'amèneront finalement à la profession d'enseignant (professeur de français),. C'est dans un collège parisien qu'il animera des clubs d'astronomie, de science-fiction, et de théâtre, passions qu'il a découvertes très jeune — ce sont les progrès dans le domaine de la conquête de l'espace, depuis la fin des années 1950, qui le poussent à explorer ces univers qu'il transformera en science-fiction.
+Il obtient le prix O.R.T.F. (Prix de la radio et de la télévision) en 1972 grâce à son troisième ouvrage La Machination, ce qui marque le réel début de sa carrière d'écrivain.
+En 1975, Christian Grenier est cofondateur avec son ami écrivain Robert Bigot, de la Charte des auteurs et illustrateurs pour la jeunesse.
+Mis à contribution par les éditeurs, notamment dans les rôles de lecteur, correcteur et rewriter, il n'exerce finalement plus qu'en temps partiel, avant de quitter définitivement l'enseignement (et Paris par la même occasion), en 1990, pour se consacrer à l'écriture dans le Périgord (Dordogne) ainsi qu'à sa femme et à ses deux enfants, nés en 1968 et 1970.
 </t>
         </is>
       </c>
@@ -545,26 +559,131 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Christian Grenier a écrit la série de romans policiers Les Enquêtes de Logicielle, ainsi que des romans de science-fiction pour la jeunesse.
-Aux éditions G.P.
-La Machination, 1973 (Grand Prix de Littérature pour la Jeunesse de la CRPLF et Sélection JLP : Jeunes, Lectures, Promotion)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Grenier a écrit la série de romans policiers Les Enquêtes de Logicielle, ainsi que des romans de science-fiction pour la jeunesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aux éditions G.P.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Machination, 1973 (Grand Prix de Littérature pour la Jeunesse de la CRPLF et Sélection JLP : Jeunes, Lectures, Promotion)
 Le Satellite venu d'ailleurs, coll. Grand Angle, 1974
 Cheyennes 6112, en collaboration avec William Camus, coll. Grand Angle, 1974 (Sélection J.L.P. : Jeunes, Lectures, Promotion)
 Une squaw dans les étoiles, en collaboration avec William Camus, coll. Spirale, 1975 (réédité chez Gallimard Jeunesse, coll. Folio junior science-fiction, 1990)
 Les Fleurs de l'espace, coll. Spirale, 1976, illustré par J.-J. Vayssières
 Le Soleil va mourir, coll. Grand Angle, 1977 (réédité chez Pocket, coll. pocket junior roman, 2002)
-Fleur de monstre, coll. La Bibliothèque Rouge et Or, 1990, illustré par Yves Beaujard
-Chez Hachette Jeunesse
-Virus LIV 3 ou La mort des livres, Hachette jeunesse, coll. Livre de poche jeunesse, 1998  (ISBN 2-01-321454-5)
+Fleur de monstre, coll. La Bibliothèque Rouge et Or, 1990, illustré par Yves Beaujard</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chez Hachette Jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Virus LIV 3 ou La mort des livres, Hachette jeunesse, coll. Livre de poche jeunesse, 1998  (ISBN 2-01-321454-5)
 Cycle du Multimonde
 La Musicienne de l'aube, 1996  (ISBN 2-01-209514-3)
 Les Lagunes du temps, 1997  (ISBN 2-01-209513-5)
 Cyberpark, 1997  (ISBN 2-01-209512-7)
-Mission en mémoire morte, 1997  (ISBN 2-01-209517-8)
-Chez Nathan
-Série Aïna
+Mission en mémoire morte, 1997  (ISBN 2-01-209517-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chez Nathan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série Aïna
 Aïna, fille des étoiles, 1995  (ISBN 2-09-282158-X)
 Aïna et le secret des Oglonis, 1996  (ISBN 2-09-282173-3)
 Aïna et le pirate de la comète, 1997  (ISBN 2-09-282190-3)
@@ -578,13 +697,84 @@
 Voyager dans l'espace, coll. Superscope, 2000
 Août 44 : Paris sur Scène, coll. Les Romans de la mémoire, 2002, illustré par Gilles Scheid
 La Boîte à Malix, coll. Demi-lune, 2002, illustré par Nico Pirate
-La Fille de pleine lune, coll. Comète, 2003, illustré par Sylvain Bourrières
-Chez Hatier G.T. Rageot
-Sabotage sur la planète rouge, coll. Jeunesse-Poche anticipation, 1972, illustré par C Kraemer
-Aïo Terre invisible, coll. Jeunesse-Poche anticipation, 1973, illustré par Michel Gay
-Chez Rageot
-Série Les Enquêtes de Logicielle
-Coups de théâtre, coll. Cascade Policier, 1994, illustré par Jean-Michel Nicollet
+La Fille de pleine lune, coll. Comète, 2003, illustré par Sylvain Bourrières</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chez Hatier G.T. Rageot</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sabotage sur la planète rouge, coll. Jeunesse-Poche anticipation, 1972, illustré par C Kraemer
+Aïo Terre invisible, coll. Jeunesse-Poche anticipation, 1973, illustré par Michel Gay</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chez Rageot</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Les Enquêtes de Logicielle</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Coups de théâtre, coll. Cascade Policier, 1994, illustré par Jean-Michel Nicollet
 L'Ordinatueur, coll. Cascade Policier, 1997, illustré par Alain Korkos
 Arrêtez la musique !, coll. Cascade Policier, 1999, illustré par Alain Gauthier
 @ssassins.net, coll. Cascade Policier, 2001, illustré par Marc Mosnier
@@ -596,26 +786,234 @@
 Hacker à bord, coll. Heure Noire, 2011, illustré par Marc Mosnier
 @pocalypse, coll. Heure Noire, 2013, illustré par Vincent Dutrait
 Fatal Gaming, coll. Heure Noire, 2017
-La nuit des oubliés, coll. Heure Noire, 2022
-Autres romans
-Sabotage sur la planète rouge, coll. Jeunesse-Poche anticipation, 1972, illustré par C Kraemer
+La nuit des oubliés, coll. Heure Noire, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chez Rageot</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sabotage sur la planète rouge, coll. Jeunesse-Poche anticipation, 1972, illustré par C Kraemer
 La Fille de 3e B, coll. Cascade, 1995, illustré par Gilbert Raffin
 Le Pianiste sans visage, coll. Cascade, 1995, illustré par Gilbert Raffin
-Ecoland, coll. Métis, 2003, illustré par Magali Shmitzler
-Chez Bayard jeunesse
-Le Visiteur de l'an 2000, coll. Les Romans de Je Bouquine, 2002, illustré par Thomas Ehretsmann
-Mercredi Mensonge, coll. Millézime, 2004, illustré par Olivier Voutch
-Chez Magnard
-Jeunesse et science-fiction, coll. Lecture en liberté, 1972
-Chez Magnard jeunesse
-Les Exilés du fleuve, coll. Les P'tits Intrépides, 2002, illustré par Benoît Perroud
-Un amour de violoncelle, coll. P'tits Fantastiques, 2003, illustré par Alexandre Bonnefoy
-Chez Milan
-Le Satellite venu d'ailleurs, coll. Milan Poche Junior, 1999, illustré par Virginie Sanchez [réédition]
+Ecoland, coll. Métis, 2003, illustré par Magali Shmitzler</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chez Bayard jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Visiteur de l'an 2000, coll. Les Romans de Je Bouquine, 2002, illustré par Thomas Ehretsmann
+Mercredi Mensonge, coll. Millézime, 2004, illustré par Olivier Voutch</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chez Magnard</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jeunesse et science-fiction, coll. Lecture en liberté, 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chez Magnard jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les Exilés du fleuve, coll. Les P'tits Intrépides, 2002, illustré par Benoît Perroud
+Un amour de violoncelle, coll. P'tits Fantastiques, 2003, illustré par Alexandre Bonnefoy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Chez Milan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le Satellite venu d'ailleurs, coll. Milan Poche Junior, 1999, illustré par Virginie Sanchez [réédition]
 Le Seigneur des neuf soleils, coll. Milan Poche Junior, 2000, illustré par Frédéric Pillot [réédition]
-L’Impossible Mlle Muche, coll. Milan Poche Junior, 2002, illustré par Frédéric Rébéna
-Divers éditeurs
-Face au Grand Jeu, Éditions La Farandole, 1975
+L’Impossible Mlle Muche, coll. Milan Poche Junior, 2002, illustré par Frédéric Rébéna</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Divers éditeurs</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Face au Grand Jeu, Éditions La Farandole, 1975
 Le Montreur d'étincelles, Robert Laffont, 1978 (réédité sous le titre Le seigneur des neuf soleils chez Milan ; en effet l'ouvrage a été épuisé et il n'a plus été au catalogue dès 1981, et Robert Laffont ne l'a jamais réédité)
 Un Printemps sans cerises, Syros, 1995
 Le Tyran, le luthier et le temps, L'Atelier du poisson soluble, 2003, illustré par François Schmidt
@@ -628,71 +1026,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Christian_Grenier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Essai</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Je suis un auteur jeunesse, Rageot, hors collection, 2004.
 La science-fiction, lecture d'avenir?, Presses universitaires de Nancy.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Christian_Grenier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Grenier</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Christian Grenier a obtenu plusieurs prix[4], dont :
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Christian Grenier a obtenu plusieurs prix, dont :
 Prix du Salon de l'enfance 1976
 Prix de la science-fiction française 1988
-Prix Tam-Tam 1996[5] pour L'ordinatueur
-Prix Tam-Tam 1997[5] pour Le Pianiste sans visage et La Fille de 3e B
-Grand Prix de l'Imaginaire 1998[6], catégorie Roman pour la jeunesse, pour Le Cycle du Multimonde
+Prix Tam-Tam 1996 pour L'ordinatueur
+Prix Tam-Tam 1997 pour Le Pianiste sans visage et La Fille de 3e B
+Grand Prix de l'Imaginaire 1998, catégorie Roman pour la jeunesse, pour Le Cycle du Multimonde
 Prix du Conte en 2003 pour Le Tyran, le Luthier et le temps
-Prix Les Mordus du polar 2005 pour Simulator[7]
+Prix Les Mordus du polar 2005 pour Simulator
 Prix Cyrano 2022, pour sa carrière et son œuvre (remis à Bergerac le 20 août 2022 lors de la Convention nationale française de science-fiction).</t>
         </is>
       </c>
